--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LF Diff-in-DiffDAGOLS 2006-12-31 to 2008-09-30 orig0.1.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LF Diff-in-DiffDAGOLS 2006-12-31 to 2008-09-30 orig0.1.xlsx
@@ -37,31 +37,31 @@
     <t>LF Lag</t>
   </si>
   <si>
-    <t>-0.026</t>
-  </si>
-  <si>
-    <t>-0.155</t>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t>0.409***</t>
-  </si>
-  <si>
-    <t>-0.606***</t>
-  </si>
-  <si>
-    <t>0.014**</t>
-  </si>
-  <si>
-    <t>-2.693</t>
-  </si>
-  <si>
-    <t>23.296**</t>
-  </si>
-  <si>
-    <t>0.829**</t>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>-0.1*</t>
+  </si>
+  <si>
+    <t>0.4***</t>
+  </si>
+  <si>
+    <t>-0.57***</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-11.46***</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>1.48*</t>
   </si>
 </sst>
 </file>
